--- a/item_details.xlsx
+++ b/item_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>ITEM DETAILS</t>
   </si>
@@ -23,19 +23,19 @@
     <t>Item Name:</t>
   </si>
   <si>
-    <t>Adhesives, Threadlockers/Threadsealants, Wear Prevention, Belt Repair, Metal Rebuilding, Floor Repair/Grouting</t>
+    <t>Acetylene</t>
   </si>
   <si>
     <t>Brand:</t>
   </si>
   <si>
-    <t>Henkel Loctite MRO</t>
+    <t>-</t>
   </si>
   <si>
     <t>Specifications:</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Refill</t>
   </si>
   <si>
     <t>Part Number:</t>
@@ -69,30 +69,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>FH Commercial Inc.</t>
-  </si>
-  <si>
-    <t>FH Building, #22 Anonas Rd., Potrero, Malabon City, 1475</t>
-  </si>
-  <si>
-    <t>(02) 362-2265 / 330-2019 / 330-2021 / 366-8598 / 361-4235 / 364-3352 / 0918-922-0974</t>
-  </si>
-  <si>
-    <t>(02) 361-3759 / 366-7724</t>
-  </si>
-  <si>
-    <t>indayaeriejoy@yahoo.com</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>Distributor</t>
-  </si>
-  <si>
-    <t>Ms. Suzette A. Espera</t>
   </si>
 </sst>
 </file>
@@ -487,10 +463,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -534,7 +510,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -578,33 +554,6 @@
       <c r="I7" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/item_details.xlsx
+++ b/item_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>ITEM DETAILS</t>
   </si>
@@ -23,22 +23,25 @@
     <t>Item Name:</t>
   </si>
   <si>
-    <t>Acetylene</t>
+    <t>Y-Strainer</t>
   </si>
   <si>
     <t>Brand:</t>
   </si>
   <si>
+    <t>Ever</t>
+  </si>
+  <si>
+    <t>Specifications:</t>
+  </si>
+  <si>
+    <t>150 lbs Rating, Flange Type, Cast Iron, 8"</t>
+  </si>
+  <si>
+    <t>Part Number:</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Specifications:</t>
-  </si>
-  <si>
-    <t>Refill</t>
-  </si>
-  <si>
-    <t>Part Number:</t>
   </si>
   <si>
     <t>VENDOR LIST</t>
@@ -510,12 +513,12 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -528,31 +531,31 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
